--- a/StructureDefinition-study-data-dictionary-harmony.xlsx
+++ b/StructureDefinition-study-data-dictionary-harmony.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-31T22:46:37+00:00</t>
+    <t>2022-10-31T22:46:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-study-data-dictionary-harmony.xlsx
+++ b/StructureDefinition-study-data-dictionary-harmony.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-31T22:46:57+00:00</t>
+    <t>2022-11-28T21:06:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-study-data-dictionary-harmony.xlsx
+++ b/StructureDefinition-study-data-dictionary-harmony.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T21:06:44+00:00</t>
+    <t>2022-11-28T21:07:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-study-data-dictionary-harmony.xlsx
+++ b/StructureDefinition-study-data-dictionary-harmony.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T21:07:57+00:00</t>
+    <t>2022-12-09T17:30:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-study-data-dictionary-harmony.xlsx
+++ b/StructureDefinition-study-data-dictionary-harmony.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-15T20:59:49+00:00</t>
+    <t>2023-09-15T21:00:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
